--- a/BHARATGO ASS1.xlsx
+++ b/BHARATGO ASS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet kumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAF280-6253-4238-BBA7-0182464ECD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B32FD9-7D75-4835-B891-181AE68E5D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF9F1B34-8966-470D-B1D6-9CFFB83A0BD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
   <si>
     <t>CREATE - PUNIT KUMAR</t>
   </si>
@@ -361,6 +361,45 @@
   </si>
   <si>
     <t xml:space="preserve">user should be set opening and closeing by own time </t>
+  </si>
+  <si>
+    <t>BH_GO_019</t>
+  </si>
+  <si>
+    <t>BH_GO_020</t>
+  </si>
+  <si>
+    <t>BH_GO_021</t>
+  </si>
+  <si>
+    <t>BH_GO_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate with image on the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. see the image on the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be see sample image of that page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should not be see sample image of that page </t>
+  </si>
+  <si>
+    <t>BH_GO_023</t>
+  </si>
+  <si>
+    <t>validate back function button</t>
+  </si>
+  <si>
+    <t>1enter the number 2.click on go started 3. enter the otp 4. click on the back button</t>
+  </si>
+  <si>
+    <t>user should be again login with mobile number</t>
+  </si>
+  <si>
+    <t>user should click on forward it again go home page</t>
   </si>
 </sst>
 </file>
@@ -424,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -484,12 +523,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,6 +574,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,9 +586,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -851,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CEE1E7-9E5C-4E5F-84E8-52394468748C}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,14 +970,14 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1317,7 @@
       <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1312,7 +1369,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>11</v>
@@ -1368,7 +1425,7 @@
       <c r="D23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1411,7 +1468,7 @@
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>100</v>
@@ -1438,7 +1495,7 @@
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>103</v>
@@ -1465,7 +1522,7 @@
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>106</v>
@@ -1489,6 +1546,58 @@
         <v>9</v>
       </c>
       <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
